--- a/docs/PPG/Laboratórios.xlsx
+++ b/docs/PPG/Laboratórios.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF5AB34-3FA9-4F49-A025-864D21714AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C0AB36-FB94-D54D-B9CC-0A945927A3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="1100" windowWidth="27880" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dados" sheetId="2" r:id="rId1"/>
-    <sheet name="Lab1" sheetId="10" r:id="rId2"/>
-    <sheet name="Lab2" sheetId="7" r:id="rId3"/>
-    <sheet name="Lab3" sheetId="12" r:id="rId4"/>
-    <sheet name="Lab4" sheetId="4" r:id="rId5"/>
-    <sheet name="Lab5" sheetId="6" r:id="rId6"/>
-    <sheet name="Lab6" sheetId="8" r:id="rId7"/>
-    <sheet name="Lab7" sheetId="11" r:id="rId8"/>
-    <sheet name="Lab8" sheetId="9" r:id="rId9"/>
+    <sheet name="Lab1" sheetId="10" r:id="rId1"/>
+    <sheet name="Lab2" sheetId="7" r:id="rId2"/>
+    <sheet name="Lab3" sheetId="12" r:id="rId3"/>
+    <sheet name="Lab4" sheetId="4" r:id="rId4"/>
+    <sheet name="Lab5" sheetId="6" r:id="rId5"/>
+    <sheet name="Lab6" sheetId="8" r:id="rId6"/>
+    <sheet name="Lab7" sheetId="11" r:id="rId7"/>
+    <sheet name="Lab8" sheetId="9" r:id="rId8"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Dados!$A$1:$E$10</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
   <si>
     <t>Bocais de Espirometria</t>
   </si>
@@ -175,9 +171,6 @@
     <t xml:space="preserve">Frequencímetro </t>
   </si>
   <si>
-    <t>Laboratórios</t>
-  </si>
-  <si>
     <t>Quantidade</t>
   </si>
   <si>
@@ -397,33 +390,6 @@
     <t>Sistema de realidade virtual</t>
   </si>
   <si>
-    <t>Arthur de Sá Ferreira</t>
-  </si>
-  <si>
-    <t>Agnaldo José Lopes</t>
-  </si>
-  <si>
-    <t>Patrícia dos Santos Vigário</t>
-  </si>
-  <si>
-    <t>Leandro Alberto Calazans Nogueira</t>
-  </si>
-  <si>
-    <t>Thiago Lemos de Carvalho</t>
-  </si>
-  <si>
-    <t>Ney Armando de Mello Meziat Filho</t>
-  </si>
-  <si>
-    <t>Luis Felipe da Fonseca Reis</t>
-  </si>
-  <si>
-    <t>Igor Ramathur Telles de Jesus</t>
-  </si>
-  <si>
-    <t>Renato Santos de Almeida</t>
-  </si>
-  <si>
     <t>Laboratório de Desempenho dos Sistemas Cardiovascular e Respiratório</t>
   </si>
   <si>
@@ -446,40 +412,13 @@
   </si>
   <si>
     <t>Laboratório de Desempenho Cardiopulmonar em Esforço</t>
-  </si>
-  <si>
-    <t>Docente 1</t>
-  </si>
-  <si>
-    <t>Docente 2</t>
-  </si>
-  <si>
-    <t>Docente 3</t>
-  </si>
-  <si>
-    <t>Fabio Vieira dos Anjos</t>
-  </si>
-  <si>
-    <t>Área (m²)</t>
-  </si>
-  <si>
-    <t>Dimensão 1 (m)</t>
-  </si>
-  <si>
-    <t>Dimensão 2 (m)</t>
-  </si>
-  <si>
-    <t>Pablo Rodrigo de Oliveira Silva</t>
-  </si>
-  <si>
-    <t>Luciana Crepaldi Lunkes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,24 +495,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -589,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -612,97 +533,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -743,7 +574,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -775,76 +606,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,240 +925,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="47.5" style="19" customWidth="1"/>
-    <col min="2" max="3" width="17.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="28.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="17">
-        <v>8.4</v>
-      </c>
-      <c r="C2" s="17">
-        <v>4.2640000000000002</v>
-      </c>
-      <c r="D2" s="16">
-        <v>30.79</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="21">
-        <v>6</v>
-      </c>
-      <c r="C3" s="21">
-        <v>6</v>
-      </c>
-      <c r="D3" s="22">
-        <v>35.479999999999997</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="21">
-        <v>6</v>
-      </c>
-      <c r="C4" s="21">
-        <v>5</v>
-      </c>
-      <c r="D4" s="22">
-        <v>28.6</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="22">
-        <v>6</v>
-      </c>
-      <c r="C5" s="21">
-        <v>5</v>
-      </c>
-      <c r="D5" s="24">
-        <v>31.19</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="32">
-        <v>6</v>
-      </c>
-      <c r="C6" s="32">
-        <v>9</v>
-      </c>
-      <c r="D6" s="22">
-        <v>54.07</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="21">
-        <v>7.7</v>
-      </c>
-      <c r="C7" s="21">
-        <v>7.7</v>
-      </c>
-      <c r="D7" s="25">
-        <v>59.4</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="21">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C8" s="21">
-        <v>5.125</v>
-      </c>
-      <c r="D8" s="22">
-        <v>20.84</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="30">
-        <v>7.1749999999999998</v>
-      </c>
-      <c r="C9" s="30">
-        <v>5.411999999999999</v>
-      </c>
-      <c r="D9" s="25">
-        <v>39.729999999999997</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
-    <sortCondition ref="A2:A9"/>
-  </sortState>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;D</oddHeader>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1403,16 +938,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="33"/>
+      <c r="A1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="11"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1423,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1455,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1472,7 +1007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -1486,16 +1021,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="33"/>
+      <c r="A1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="11"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1506,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1514,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1522,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1536,7 +1071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -1550,16 +1085,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="33"/>
+      <c r="A1" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="11"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1570,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1578,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1586,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1594,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1602,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1610,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1618,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1634,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1642,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1664,7 +1199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
@@ -1678,16 +1213,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="33"/>
+      <c r="A1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="11"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1698,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1714,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1746,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1770,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1778,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1810,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1826,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1834,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1866,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1930,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1938,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1978,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1986,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -2002,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -2027,7 +1562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
@@ -2041,16 +1576,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="34"/>
+      <c r="A1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="12"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2093,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2101,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2109,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2117,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2125,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2141,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2149,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2157,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2173,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2181,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2222,7 +1757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
@@ -2236,16 +1771,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="33"/>
+      <c r="A1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="11"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2264,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2272,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2288,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2296,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2304,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2320,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2328,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2336,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2344,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2352,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2360,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2376,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2384,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2392,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2408,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2416,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2433,7 +1968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -2447,16 +1982,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="33"/>
+      <c r="A1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="11"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2467,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2475,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
@@ -2503,16 +2038,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="33"/>
+      <c r="A1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="11"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2523,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2531,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2539,7 +2074,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2547,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2555,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2571,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2579,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2587,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2595,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2603,7 +2138,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2611,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2619,7 +2154,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2627,7 +2162,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -2635,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -2643,7 +2178,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -2651,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -2659,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Laboratórios.xlsx
+++ b/docs/PPG/Laboratórios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C0AB36-FB94-D54D-B9CC-0A945927A3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365A5592-F6C7-8E44-93E0-207B3B739AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="1100" windowWidth="27880" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>computador c/2 monitores (0000025728)</t>
   </si>
   <si>
-    <t>Desfribilador</t>
-  </si>
-  <si>
     <t>Cilindro Verde</t>
   </si>
   <si>
@@ -412,6 +409,9 @@
   </si>
   <si>
     <t>Laboratório de Desempenho Cardiopulmonar em Esforço</t>
+  </si>
+  <si>
+    <t>Desfibrilador</t>
   </si>
 </sst>
 </file>
@@ -939,7 +939,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="2"/>
@@ -947,7 +947,7 @@
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1022,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="10"/>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1041,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1086,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="2"/>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1145,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1169,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1177,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1214,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="10"/>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1241,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1273,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1305,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1385,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1401,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1433,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1441,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1449,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1457,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1481,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1489,7 +1489,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1505,7 +1505,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1521,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1529,7 +1529,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1545,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1577,7 +1577,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="12"/>
       <c r="K1" s="10"/>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1636,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1692,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1772,7 +1772,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="10"/>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1799,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1823,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1863,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1871,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1887,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1911,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1951,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +1983,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="2"/>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2039,7 +2039,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="2"/>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2074,7 +2074,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2082,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2106,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2122,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2138,7 +2138,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2146,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2154,7 +2154,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2162,7 +2162,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -2178,7 +2178,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -2186,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -2194,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Laboratórios.xlsx
+++ b/docs/PPG/Laboratórios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365A5592-F6C7-8E44-93E0-207B3B739AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC952B77-3DF1-2942-AA55-9097F0CF2DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="1100" windowWidth="27880" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="126">
   <si>
     <t>Bocais de Espirometria</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Cama elástica</t>
   </si>
   <si>
-    <t>Maple (software)</t>
-  </si>
-  <si>
     <t>NI DAQmx (software)</t>
   </si>
   <si>
@@ -412,6 +409,18 @@
   </si>
   <si>
     <t>Desfibrilador</t>
+  </si>
+  <si>
+    <t>LabVIEW Academic License 2023 (software)</t>
+  </si>
+  <si>
+    <t>Maple 17 (software)</t>
+  </si>
+  <si>
+    <t>Maple 15 (software)</t>
+  </si>
+  <si>
+    <t>Nvivo 14 Windows (Academic)</t>
   </si>
 </sst>
 </file>
@@ -650,7 +659,18 @@
     <cellStyle name="Hiperlink Visitado" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -939,7 +959,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="2"/>
@@ -958,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1022,7 +1042,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="10"/>
@@ -1086,7 +1106,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="2"/>
@@ -1105,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1113,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1121,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1129,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1137,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1145,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1153,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1161,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1169,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1177,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1214,7 +1234,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="10"/>
@@ -1577,7 +1597,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="12"/>
       <c r="K1" s="10"/>
@@ -1628,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1660,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1708,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1772,7 +1792,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="10"/>
@@ -1983,7 +2003,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="2"/>
@@ -2002,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2010,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +2046,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2039,7 +2059,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="2"/>
@@ -2058,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2082,7 +2102,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2090,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2106,7 +2126,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2114,15 +2134,15 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2130,15 +2150,15 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2146,15 +2166,15 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -2162,7 +2182,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -2170,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -2178,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -2186,20 +2206,44 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>4</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B20">
-    <sortCondition ref="B3:B20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B23">
+    <sortCondition ref="B3:B23"/>
   </sortState>
   <pageMargins left="0.17" right="0.18" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/PPG/Laboratórios.xlsx
+++ b/docs/PPG/Laboratórios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC952B77-3DF1-2942-AA55-9097F0CF2DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40C47DF-A593-2C41-8380-AD105E70B9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1100" windowWidth="27880" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="1100" windowWidth="27880" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab1" sheetId="10" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Eletromiógrafo</t>
   </si>
   <si>
-    <t>Aparelhos</t>
-  </si>
-  <si>
     <t>Barra Paralela</t>
   </si>
   <si>
@@ -421,6 +418,9 @@
   </si>
   <si>
     <t>Nvivo 14 Windows (Academic)</t>
+  </si>
+  <si>
+    <t>Equipamento</t>
   </si>
 </sst>
 </file>
@@ -659,18 +659,7 @@
     <cellStyle name="Hiperlink Visitado" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -952,65 +941,65 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="56.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
+      <c r="A2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>99</v>
+      <c r="A3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+      <c r="B4" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>65</v>
+      <c r="A7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1035,14 +1024,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="10"/>
@@ -1050,34 +1039,34 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>67</v>
+      <c r="B4" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>76</v>
+      <c r="A5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1099,113 +1088,113 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="59.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
+      <c r="A2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="B8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
+      <c r="B12" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1227,14 +1216,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="75.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="10"/>
@@ -1242,330 +1231,330 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="B42" s="4">
         <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>2</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>2</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>1</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>2</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>4</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>1</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>4</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>3</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>2</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>4</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>8</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>1</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>3</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1590,14 +1579,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="51.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="12"/>
       <c r="K1" s="10"/>
@@ -1605,162 +1594,162 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>2</v>
+      <c r="B20" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>11</v>
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1785,14 +1774,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="48.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="10"/>
@@ -1800,178 +1789,178 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+      <c r="B3" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>79</v>
+      <c r="B23" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1996,41 +1985,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
+      <c r="A2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>112</v>
+      <c r="B4" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2052,193 +2041,193 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="11"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="8">
         <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>4</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
